--- a/公司/股权结构.xlsx
+++ b/公司/股权结构.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,6 +63,22 @@
   </si>
   <si>
     <t>刘峻（天使投资人）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持股比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京北</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持股比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京北</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -413,19 +429,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="10.25" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -436,10 +454,13 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -450,11 +471,15 @@
         <f>B2*0.97</f>
         <v>1.5035E-2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1">
+        <f t="shared" ref="D2:D6" si="0">C2*0.93</f>
+        <v>1.398255E-2</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -462,14 +487,18 @@
         <v>0.14649999999999999</v>
       </c>
       <c r="C3" s="1">
-        <f t="shared" ref="C3:C5" si="0">B3*0.97</f>
+        <f t="shared" ref="C3:C5" si="1">B3*0.97</f>
         <v>0.14210499999999998</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1">
+        <f t="shared" si="0"/>
+        <v>0.13215764999999999</v>
+      </c>
+      <c r="E3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -477,11 +506,15 @@
         <v>0.18099999999999999</v>
       </c>
       <c r="C4" s="1">
+        <f t="shared" si="1"/>
+        <v>0.17556999999999998</v>
+      </c>
+      <c r="D4" s="1">
         <f t="shared" si="0"/>
-        <v>0.17556999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.16328009999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -489,11 +522,15 @@
         <v>0.59489999999999998</v>
       </c>
       <c r="C5" s="1">
+        <f t="shared" si="1"/>
+        <v>0.57705299999999993</v>
+      </c>
+      <c r="D5" s="1">
         <f t="shared" si="0"/>
-        <v>0.57705299999999993</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>0.53665929000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -503,8 +540,12 @@
       <c r="C6" s="2">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>2.7900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -515,66 +556,135 @@
         <f>B7*0.97</f>
         <v>6.0236999999999999E-2</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1">
+        <f>C7*0.93</f>
+        <v>5.602041E-2</v>
+      </c>
+      <c r="E7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <f>B8*0.97</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <f>SUM(B2:B7)</f>
+      <c r="B11" s="1">
+        <f>SUM(B2:B8)</f>
         <v>1</v>
       </c>
-      <c r="C8" s="1">
-        <f>SUM(C2:C7)</f>
+      <c r="C11" s="1">
+        <f>SUM(C2:C8)</f>
         <v>0.99999999999999989</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="D11" s="1">
+        <f>SUM(D2:D8)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="D13" s="1"/>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>0</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="1">
         <v>0.76439999999999997</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16" s="1">
+        <f>B16*0.93</f>
+        <v>0.71089199999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>3</v>
       </c>
       <c r="B17" s="1">
         <v>0.17560000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17" s="1">
+        <f t="shared" ref="C17:C19" si="2">B17*0.93</f>
+        <v>0.16330800000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18" s="1">
+        <f t="shared" si="2"/>
+        <v>2.7900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19" s="1">
+        <f t="shared" si="2"/>
+        <v>2.7900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
       <c r="B20" s="1">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="B21" s="1">
         <f>SUM(B16:B19)</f>
+        <v>1</v>
+      </c>
+      <c r="C21" s="2">
+        <f>SUM(C16:C20)</f>
         <v>1</v>
       </c>
     </row>

--- a/公司/股权结构.xlsx
+++ b/公司/股权结构.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="100" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,14 +84,25 @@
   </si>
   <si>
     <t>京北</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘峻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘全晖</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.000000%"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +113,24 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -120,12 +154,42 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -135,9 +199,22 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="11">
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -428,22 +505,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="10.5" customWidth="1"/>
-    <col min="3" max="3" width="10.25" customWidth="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -454,271 +531,337 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1">
         <v>1.55E-2</v>
       </c>
-      <c r="C2" s="1">
-        <f>B2*0.97</f>
+      <c r="C2" s="3">
+        <f>B2*97%</f>
         <v>1.5035E-2</v>
       </c>
       <c r="D2" s="1">
-        <f t="shared" ref="D2:D6" si="0">C2*0.93</f>
+        <f>C2</f>
+        <v>1.5035E-2</v>
+      </c>
+      <c r="E2" s="1">
+        <f t="shared" ref="E2:E9" si="0">D2*0.93</f>
         <v>1.398255E-2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1">
         <v>0.14649999999999999</v>
       </c>
-      <c r="C3" s="1">
-        <f t="shared" ref="C3:C5" si="1">B3*0.97</f>
+      <c r="C3" s="3">
+        <f t="shared" ref="C3:C10" si="1">B3*97%</f>
         <v>0.14210499999999998</v>
       </c>
       <c r="D3" s="1">
+        <f t="shared" ref="D3:D9" si="2">C3</f>
+        <v>0.14210499999999998</v>
+      </c>
+      <c r="E3" s="1">
         <f t="shared" si="0"/>
         <v>0.13215764999999999</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>0.18099999999999999</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
         <f t="shared" si="1"/>
         <v>0.17556999999999998</v>
       </c>
       <c r="D4" s="1">
+        <f t="shared" si="2"/>
+        <v>0.17556999999999998</v>
+      </c>
+      <c r="E4" s="1">
         <f t="shared" si="0"/>
         <v>0.16328009999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1">
         <v>0.59489999999999998</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3">
         <f t="shared" si="1"/>
         <v>0.57705299999999993</v>
       </c>
       <c r="D5" s="1">
+        <v>0.54710000000000003</v>
+      </c>
+      <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>0.53665929000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>0.50880300000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>0.03</v>
       </c>
       <c r="D6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.03</v>
+      </c>
+      <c r="E6" s="1">
         <f t="shared" si="0"/>
         <v>2.7900000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>2.7900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B8" s="1">
         <v>6.2100000000000002E-2</v>
       </c>
-      <c r="C7" s="1">
-        <f>B7*0.97</f>
+      <c r="C8" s="3">
+        <f t="shared" si="1"/>
         <v>6.0236999999999999E-2</v>
       </c>
-      <c r="D7" s="1">
-        <f>C7*0.93</f>
+      <c r="D8" s="1">
+        <f t="shared" si="2"/>
+        <v>6.0236999999999999E-2</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
         <v>5.602041E-2</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B9" s="1">
         <v>0</v>
       </c>
-      <c r="C8" s="1">
-        <f>B8*0.97</f>
+      <c r="C9" s="3">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D9" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:5">
+    <row r="10" spans="1:6">
+      <c r="C10" s="3"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="1">
-        <f>SUM(B2:B8)</f>
+        <f>SUM(B2:B9)</f>
         <v>1</v>
       </c>
-      <c r="C11" s="1">
-        <f>SUM(C2:C8)</f>
-        <v>0.99999999999999989</v>
-      </c>
+      <c r="C11" s="1"/>
       <c r="D11" s="1">
-        <f>SUM(D2:D8)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="D13" s="1"/>
-    </row>
-    <row r="15" spans="1:5">
+        <f>SUM(D2:D9)</f>
+        <v>1.0000470000000001</v>
+      </c>
+      <c r="E11" s="1">
+        <f>SUM(E2:E9)</f>
+        <v>1.0000437100000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="E13" s="1"/>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>0</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="1">
         <v>0.76439999999999997</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1">
         <f>B16*0.93</f>
         <v>0.71089199999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>3</v>
       </c>
       <c r="B17" s="1">
         <v>0.17560000000000001</v>
       </c>
-      <c r="C17" s="1">
-        <f t="shared" ref="C17:C19" si="2">B17*0.93</f>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1">
+        <f t="shared" ref="D17:D19" si="3">B17*0.93</f>
         <v>0.16330800000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="1">
         <v>0.03</v>
       </c>
-      <c r="C18" s="1">
-        <f t="shared" si="2"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1">
+        <f t="shared" si="3"/>
         <v>2.7900000000000001E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="1">
         <v>0.03</v>
       </c>
-      <c r="C19" s="1">
-        <f t="shared" si="2"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1">
+        <f t="shared" si="3"/>
         <v>2.7900000000000001E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="1">
         <v>0</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:4">
       <c r="B21" s="1">
         <f>SUM(B16:B19)</f>
         <v>1</v>
       </c>
-      <c r="C21" s="2">
-        <f>SUM(C16:C20)</f>
+      <c r="C21" s="1"/>
+      <c r="D21" s="2">
+        <f>SUM(D16:D20)</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>